--- a/biology/Microbiologie/Stentor_(protiste)/Stentor_(protiste).xlsx
+++ b/biology/Microbiologie/Stentor_(protiste)/Stentor_(protiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stentor est un genre de ciliés de la famille des Stentoridae. Son nom lui a été donné en référence au héros grec Stentor, et à sa forme rappelant celle d'une trompette. Ce protozoaire cilié en forme de trompe, vit surtout dans les eaux douces (sur les biofilms se formant sur les racines de plante flottantes par exemple), et sa longueur peut aisément atteindre 3 à 5 mm (celui le fait considérer comme le « géant » du groupe des infusoires auquel il est rattaché).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (7 déc. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (7 déc. 2010) :
 Stentor acrobaticus Silén, 1947
 Stentor auricula Kent, 1881
 Stentor auriculatus Kahl, 1932
